--- a/OpenMP Timing/OMP Data.xlsx
+++ b/OpenMP Timing/OMP Data.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -147,6 +150,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OpenMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Parallelization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -314,6 +347,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -376,6 +465,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1022,16 +1171,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1051,6 +1200,73 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="O2" t="str">
+            <v>Average Total Time(ms)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="N3">
+            <v>25</v>
+          </cell>
+          <cell r="O3">
+            <v>174.70249329999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="N4">
+            <v>50</v>
+          </cell>
+          <cell r="O4">
+            <v>183.90501979999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>75</v>
+          </cell>
+          <cell r="O5">
+            <v>206.83636969999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>100</v>
+          </cell>
+          <cell r="O6">
+            <v>267.85437250000007</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>125</v>
+          </cell>
+          <cell r="O7">
+            <v>393.0992675</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>150</v>
+          </cell>
+          <cell r="O8">
+            <v>631.90533040000014</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,7 +1535,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1635,7 @@
         <v>0.33203500000000002</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(B4:K4)</f>
+        <f t="shared" ref="L4:L10" si="0">AVERAGE(B4:K4)</f>
         <v>0.33215329999999998</v>
       </c>
       <c r="N4">
@@ -1464,7 +1680,7 @@
         <v>0.78048300000000004</v>
       </c>
       <c r="L5">
-        <f>AVERAGE(B5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0.76972119999999999</v>
       </c>
       <c r="N5">
@@ -1509,7 +1725,7 @@
         <v>2.7938999999999999E-2</v>
       </c>
       <c r="L6">
-        <f>AVERAGE(B6:K6)</f>
+        <f t="shared" si="0"/>
         <v>2.8441299999999996E-2</v>
       </c>
       <c r="N6">
@@ -1554,7 +1770,7 @@
         <v>0.831592</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(B7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0.82456820000000008</v>
       </c>
       <c r="N7">
@@ -1599,7 +1815,7 @@
         <v>33.633164999999998</v>
       </c>
       <c r="L8">
-        <f>AVERAGE(B8:K8)</f>
+        <f t="shared" si="0"/>
         <v>42.050547000000002</v>
       </c>
       <c r="N8">
@@ -1644,7 +1860,7 @@
         <v>5.8320000000000004E-3</v>
       </c>
       <c r="L9">
-        <f>AVERAGE(B9:K9)</f>
+        <f t="shared" si="0"/>
         <v>5.8333999999999999E-3</v>
       </c>
       <c r="N9">
@@ -1689,7 +1905,7 @@
         <v>34.802624000000002</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(B10:K10)</f>
+        <f t="shared" si="0"/>
         <v>43.213101699999996</v>
       </c>
     </row>
@@ -1771,7 +1987,7 @@
         <v>0.36055700000000002</v>
       </c>
       <c r="L15">
-        <f>AVERAGE(B15:K15)</f>
+        <f t="shared" ref="L15:L21" si="1">AVERAGE(B15:K15)</f>
         <v>0.33570030000000001</v>
       </c>
     </row>
@@ -1810,7 +2026,7 @@
         <v>2.5741209999999999</v>
       </c>
       <c r="L16">
-        <f>AVERAGE(B16:K16)</f>
+        <f t="shared" si="1"/>
         <v>2.5794494000000001</v>
       </c>
     </row>
@@ -1849,7 +2065,7 @@
         <v>3.7679999999999998E-2</v>
       </c>
       <c r="L17">
-        <f>AVERAGE(B17:K17)</f>
+        <f t="shared" si="1"/>
         <v>3.8000400000000004E-2</v>
       </c>
     </row>
@@ -1888,7 +2104,7 @@
         <v>2.6344180000000001</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(B18:K18)</f>
+        <f t="shared" si="1"/>
         <v>2.6408214999999999</v>
       </c>
     </row>
@@ -1927,7 +2143,7 @@
         <v>278.55316599999998</v>
       </c>
       <c r="L19">
-        <f>AVERAGE(B19:K19)</f>
+        <f t="shared" si="1"/>
         <v>276.53206729999999</v>
       </c>
     </row>
@@ -1966,7 +2182,7 @@
         <v>5.7829999999999999E-3</v>
       </c>
       <c r="L20">
-        <f>AVERAGE(B20:K20)</f>
+        <f t="shared" si="1"/>
         <v>5.753799999999999E-3</v>
       </c>
     </row>
@@ -2005,7 +2221,7 @@
         <v>281.55392399999999</v>
       </c>
       <c r="L21">
-        <f>AVERAGE(B21:K21)</f>
+        <f t="shared" si="1"/>
         <v>279.514343</v>
       </c>
     </row>
@@ -2087,7 +2303,7 @@
         <v>0.33653899999999998</v>
       </c>
       <c r="L26">
-        <f>AVERAGE(B26:K26)</f>
+        <f t="shared" ref="L26:L32" si="2">AVERAGE(B26:K26)</f>
         <v>0.30782660000000006</v>
       </c>
     </row>
@@ -2126,7 +2342,7 @@
         <v>5.5599259999999999</v>
       </c>
       <c r="L27">
-        <f>AVERAGE(B27:K27)</f>
+        <f t="shared" si="2"/>
         <v>5.1385546999999985</v>
       </c>
     </row>
@@ -2165,7 +2381,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="L28">
-        <f>AVERAGE(B28:K28)</f>
+        <f t="shared" si="2"/>
         <v>4.5021700000000012E-2</v>
       </c>
     </row>
@@ -2204,7 +2420,7 @@
         <v>5.6353119999999999</v>
       </c>
       <c r="L29">
-        <f>AVERAGE(B29:K29)</f>
+        <f t="shared" si="2"/>
         <v>5.2067733999999994</v>
       </c>
     </row>
@@ -2243,7 +2459,7 @@
         <v>1295.873799</v>
       </c>
       <c r="L30">
-        <f>AVERAGE(B30:K30)</f>
+        <f t="shared" si="2"/>
         <v>1289.4102571999999</v>
       </c>
     </row>
@@ -2282,7 +2498,7 @@
         <v>5.8989999999999997E-3</v>
       </c>
       <c r="L31">
-        <f>AVERAGE(B31:K31)</f>
+        <f t="shared" si="2"/>
         <v>6.245800000000001E-3</v>
       </c>
     </row>
@@ -2321,7 +2537,7 @@
         <v>1301.8515480000001</v>
       </c>
       <c r="L32">
-        <f>AVERAGE(B32:K32)</f>
+        <f t="shared" si="2"/>
         <v>1294.9311026999999</v>
       </c>
     </row>
@@ -2403,7 +2619,7 @@
         <v>0.33366499999999999</v>
       </c>
       <c r="L37">
-        <f>AVERAGE(B37:K37)</f>
+        <f t="shared" ref="L37:L43" si="3">AVERAGE(B37:K37)</f>
         <v>0.33811439999999998</v>
       </c>
     </row>
@@ -2442,7 +2658,7 @@
         <v>9.6494370000000007</v>
       </c>
       <c r="L38">
-        <f>AVERAGE(B38:K38)</f>
+        <f t="shared" si="3"/>
         <v>9.6946177000000002</v>
       </c>
     </row>
@@ -2481,7 +2697,7 @@
         <v>0.107906</v>
       </c>
       <c r="L39">
-        <f>AVERAGE(B39:K39)</f>
+        <f t="shared" si="3"/>
         <v>0.10983260000000002</v>
       </c>
     </row>
@@ -2520,7 +2736,7 @@
         <v>9.7920269999999991</v>
       </c>
       <c r="L40">
-        <f>AVERAGE(B40:K40)</f>
+        <f t="shared" si="3"/>
         <v>9.8404828999999996</v>
       </c>
     </row>
@@ -2559,7 +2775,7 @@
         <v>4044.7745129999998</v>
       </c>
       <c r="L41">
-        <f>AVERAGE(B41:K41)</f>
+        <f t="shared" si="3"/>
         <v>4026.4241577999992</v>
       </c>
     </row>
@@ -2598,7 +2814,7 @@
         <v>6.424E-3</v>
       </c>
       <c r="L42">
-        <f>AVERAGE(B42:K42)</f>
+        <f t="shared" si="3"/>
         <v>6.7454000000000004E-3</v>
       </c>
     </row>
@@ -2637,7 +2853,7 @@
         <v>4054.9066280000002</v>
       </c>
       <c r="L43">
-        <f>AVERAGE(B43:K43)</f>
+        <f t="shared" si="3"/>
         <v>4036.6095006999994</v>
       </c>
     </row>
@@ -2719,7 +2935,7 @@
         <v>0.33950599999999997</v>
       </c>
       <c r="L48">
-        <f>AVERAGE(B48:K48)</f>
+        <f t="shared" ref="L48:L54" si="4">AVERAGE(B48:K48)</f>
         <v>0.34364280000000003</v>
       </c>
     </row>
@@ -2758,7 +2974,7 @@
         <v>14.984406999999999</v>
       </c>
       <c r="L49">
-        <f>AVERAGE(B49:K49)</f>
+        <f t="shared" si="4"/>
         <v>14.6357588</v>
       </c>
     </row>
@@ -2797,7 +3013,7 @@
         <v>7.8192999999999999E-2</v>
       </c>
       <c r="L50">
-        <f>AVERAGE(B50:K50)</f>
+        <f t="shared" si="4"/>
         <v>6.5221700000000007E-2</v>
       </c>
     </row>
@@ -2836,7 +3052,7 @@
         <v>15.105572</v>
       </c>
       <c r="L51">
-        <f>AVERAGE(B51:K51)</f>
+        <f t="shared" si="4"/>
         <v>14.737827599999999</v>
       </c>
     </row>
@@ -2875,7 +3091,7 @@
         <v>9710.7384729999994</v>
       </c>
       <c r="L52">
-        <f>AVERAGE(B52:K52)</f>
+        <f t="shared" si="4"/>
         <v>9747.5536634999989</v>
       </c>
     </row>
@@ -2914,7 +3130,7 @@
         <v>6.829E-3</v>
       </c>
       <c r="L53">
-        <f>AVERAGE(B53:K53)</f>
+        <f t="shared" si="4"/>
         <v>8.5874000000000002E-3</v>
       </c>
     </row>
@@ -2953,7 +3169,7 @@
         <v>9726.1903810000003</v>
       </c>
       <c r="L54">
-        <f>AVERAGE(B54:K54)</f>
+        <f t="shared" si="4"/>
         <v>9762.6437215999995</v>
       </c>
     </row>
@@ -3035,7 +3251,7 @@
         <v>0.35112300000000002</v>
       </c>
       <c r="L59">
-        <f>AVERAGE(B59:K59)</f>
+        <f t="shared" ref="L59:L65" si="5">AVERAGE(B59:K59)</f>
         <v>0.35511229999999994</v>
       </c>
     </row>
@@ -3074,7 +3290,7 @@
         <v>21.432427000000001</v>
       </c>
       <c r="L60">
-        <f>AVERAGE(B60:K60)</f>
+        <f t="shared" si="5"/>
         <v>21.406915399999999</v>
       </c>
     </row>
@@ -3113,7 +3329,7 @@
         <v>8.9024000000000006E-2</v>
       </c>
       <c r="L61">
-        <f>AVERAGE(B61:K61)</f>
+        <f t="shared" si="5"/>
         <v>8.8623599999999997E-2</v>
       </c>
     </row>
@@ -3152,7 +3368,7 @@
         <v>21.567067999999999</v>
       </c>
       <c r="L62">
-        <f>AVERAGE(B62:K62)</f>
+        <f t="shared" si="5"/>
         <v>21.539699200000001</v>
       </c>
     </row>
@@ -3191,7 +3407,7 @@
         <v>20334.655583</v>
       </c>
       <c r="L63">
-        <f>AVERAGE(B63:K63)</f>
+        <f t="shared" si="5"/>
         <v>20181.292982299998</v>
       </c>
     </row>
@@ -3230,7 +3446,7 @@
         <v>1.4584E-2</v>
       </c>
       <c r="L64">
-        <f>AVERAGE(B64:K64)</f>
+        <f t="shared" si="5"/>
         <v>1.1050999999999998E-2</v>
       </c>
     </row>
@@ -3269,7 +3485,7 @@
         <v>20356.588358000001</v>
       </c>
       <c r="L65">
-        <f>AVERAGE(B65:K65)</f>
+        <f t="shared" si="5"/>
         <v>20203.198844999999</v>
       </c>
     </row>
